--- a/sample_data/biblioteka_pdsa.xlsx
+++ b/sample_data/biblioteka_pdsa.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,6 +445,11 @@
           <t>comment</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>n_records</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -457,6 +462,9 @@
           <t>Bibliotekos lankytojas</t>
         </is>
       </c>
+      <c r="C2" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -469,6 +477,9 @@
           <t>Knygos duomenys, bendri jos egzemplioriams</t>
         </is>
       </c>
+      <c r="C3" t="n">
+        <v>33333</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -478,8 +489,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Išdavimo duomenys</t>
-        </is>
+          <t>Knygos paskolinimas skaitytojui</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12345</v>
       </c>
     </row>
     <row r="5">
@@ -493,6 +507,9 @@
           <t>Bibliotekos darbuotojas</t>
         </is>
       </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -502,8 +519,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Skaitytojų atsiliepimai apie knygas</t>
-        </is>
+          <t>Skaitytojo atsiliepimas apie knygą</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -514,8 +534,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rašytojai, knygų sudarytojai</t>
-        </is>
+          <t>Rašytojas arba leidinio sudarytojas</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2000</v>
       </c>
     </row>
     <row r="8">
@@ -526,8 +549,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Leidyklos, institucijos, organizacijos</t>
-        </is>
+          <t>Leidykla, institucija arba organizacija</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="9">
@@ -538,8 +564,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Knygų žanrų duomenys</t>
-        </is>
+          <t>Knygos teminė grupė</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -553,6 +582,9 @@
           <t>Vienodų knygų egzemplioriai</t>
         </is>
       </c>
+      <c r="C10" t="n">
+        <v>99999</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -562,8 +594,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Išankstinė knygų rezervacija</t>
-        </is>
+          <t>Išankstinis knygų užsakymas</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>777</v>
       </c>
     </row>
   </sheetData>
@@ -577,7 +612,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -628,7 +663,7 @@
           <t>Skaitytojo identifikatorius</t>
         </is>
       </c>
-      <c r="D2" t="b">
+      <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
@@ -653,7 +688,7 @@
           <t>Vardas</t>
         </is>
       </c>
-      <c r="D3" t="b">
+      <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
@@ -678,7 +713,7 @@
           <t>Pavardė</t>
         </is>
       </c>
-      <c r="D4" t="b">
+      <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
@@ -703,7 +738,7 @@
           <t>Telefonas</t>
         </is>
       </c>
-      <c r="D5" t="b">
+      <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
@@ -728,7 +763,7 @@
           <t>El. paštas</t>
         </is>
       </c>
-      <c r="D6" t="b">
+      <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
@@ -753,7 +788,7 @@
           <t>Registracija</t>
         </is>
       </c>
-      <c r="D7" t="b">
+      <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
@@ -778,7 +813,7 @@
           <t>Knygos identifikatorius</t>
         </is>
       </c>
-      <c r="D8" t="b">
+      <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
@@ -795,15 +830,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Author</t>
+          <t>ParentID</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Autorius</t>
-        </is>
-      </c>
-      <c r="D9" t="b">
+          <t>Viršesnis identifikatorius</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
@@ -820,20 +855,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>AuthorID</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Pavadinimas</t>
-        </is>
-      </c>
-      <c r="D10" t="b">
+          <t>Autoriaus identifikatorius</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>varchar</t>
+          <t>int</t>
         </is>
       </c>
     </row>
@@ -845,15 +880,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ISBN</t>
+          <t>Title</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ISBN kodas</t>
-        </is>
-      </c>
-      <c r="D11" t="b">
+          <t>Pavadinimas</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
@@ -870,20 +905,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>GenreID</t>
+          <t>ISBN</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Žanro identifikatorius</t>
-        </is>
-      </c>
-      <c r="D12" t="b">
+          <t>ISBN kodas</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>varchar</t>
         </is>
       </c>
     </row>
@@ -895,15 +930,15 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PublisherID</t>
+          <t>GenreID</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Leidėjo identifikatorius</t>
-        </is>
-      </c>
-      <c r="D13" t="b">
+          <t>Žanro identifikatorius</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
@@ -920,15 +955,15 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>PublisherID</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Leidimo metai</t>
-        </is>
-      </c>
-      <c r="D14" t="b">
+          <t>Leidėjo identifikatorius</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
@@ -940,21 +975,21 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Išdavimas</t>
+          <t>Knyga</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Identifikatorius</t>
-        </is>
-      </c>
-      <c r="D15" t="b">
-        <v>1</v>
+          <t>Leidimo metai</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -970,16 +1005,16 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ClientID</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Skaitytojo identifikatorius</t>
-        </is>
-      </c>
-      <c r="D16" t="b">
-        <v>0</v>
+          <t>Išdavimo identifikatorius</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -995,15 +1030,15 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BookCopyID</t>
+          <t>ClientID</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Knygos kopijos identifikatorius</t>
-        </is>
-      </c>
-      <c r="D17" t="b">
+          <t>Skaitytojo identifikatorius</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
@@ -1020,15 +1055,15 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>LibrarianID</t>
+          <t>BookCopyID</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Bibliotekininko identifikatorius</t>
-        </is>
-      </c>
-      <c r="D18" t="b">
+          <t>Knygos kopijos identifikatorius</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
@@ -1045,20 +1080,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>IssueDate</t>
+          <t>LibrarianID</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Išdavimo data</t>
-        </is>
-      </c>
-      <c r="D19" t="b">
+          <t>Bibliotekininko identifikatorius</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>int</t>
         </is>
       </c>
     </row>
@@ -1070,15 +1105,15 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ReturnDate</t>
+          <t>IssueDate</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Grąžinimo data</t>
-        </is>
-      </c>
-      <c r="D20" t="b">
+          <t>Išdavimo data</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
@@ -1090,25 +1125,25 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Bibliotekininkas</t>
+          <t>Išdavimas</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>ReturnDate</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Identifikatorius</t>
-        </is>
-      </c>
-      <c r="D21" t="b">
-        <v>1</v>
+          <t>Grąžinimo data</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>date</t>
         </is>
       </c>
     </row>
@@ -1120,20 +1155,20 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Vardas</t>
-        </is>
-      </c>
-      <c r="D22" t="b">
-        <v>0</v>
+          <t>Bibliotekininko identifikatorius</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>varchar</t>
+          <t>int</t>
         </is>
       </c>
     </row>
@@ -1145,15 +1180,15 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Surname</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Pavardė</t>
-        </is>
-      </c>
-      <c r="D23" t="b">
+          <t>Vardas</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
@@ -1170,15 +1205,15 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Phone</t>
+          <t>Surname</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Telefonas</t>
-        </is>
-      </c>
-      <c r="D24" t="b">
+          <t>Pavardė</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="inlineStr">
@@ -1195,15 +1230,15 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>Phone</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>El. paštas</t>
-        </is>
-      </c>
-      <c r="D25" t="b">
+          <t>Telefonas</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="inlineStr">
@@ -1220,45 +1255,45 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>EmploymentDate</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Įdarbinimo data</t>
-        </is>
-      </c>
-      <c r="D26" t="b">
+          <t>El. paštas</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>varchar</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Atsiliepimas</t>
+          <t>Bibliotekininkas</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EmploymentDate</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Identifikatorius</t>
-        </is>
-      </c>
-      <c r="D27" t="b">
-        <v>1</v>
+          <t>Įdarbinimo data</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>date</t>
         </is>
       </c>
     </row>
@@ -1270,16 +1305,16 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ClientID</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Skaitytojo identifikatorius</t>
-        </is>
-      </c>
-      <c r="D28" t="b">
-        <v>0</v>
+          <t>Atsiliepimo identifikatorius</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1295,15 +1330,15 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BookID</t>
+          <t>ClientID</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Knygos identifikatorius</t>
-        </is>
-      </c>
-      <c r="D29" t="b">
+          <t>Skaitytojo identifikatorius</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="inlineStr">
@@ -1320,20 +1355,20 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>BookID</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="D30" t="b">
+          <t>Knygos identifikatorius</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>int</t>
         </is>
       </c>
     </row>
@@ -1345,45 +1380,45 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Atsiliepimas</t>
-        </is>
-      </c>
-      <c r="D31" t="b">
+          <t>Parašymo data</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>date</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Autorius</t>
+          <t>Atsiliepimas</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Identifikatorius</t>
-        </is>
-      </c>
-      <c r="D32" t="b">
-        <v>1</v>
+          <t>Atsiliepimo turinys</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>text</t>
         </is>
       </c>
     </row>
@@ -1395,20 +1430,20 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Vardas</t>
-        </is>
-      </c>
-      <c r="D33" t="b">
-        <v>0</v>
+          <t>Autoriaus identifikatorius</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>varchar</t>
+          <t>int</t>
         </is>
       </c>
     </row>
@@ -1420,15 +1455,15 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Surname</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Pavardė</t>
-        </is>
-      </c>
-      <c r="D34" t="b">
+          <t>Vardas</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="inlineStr">
@@ -1445,45 +1480,45 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Biography</t>
+          <t>Surname</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Biografija</t>
-        </is>
-      </c>
-      <c r="D35" t="b">
+          <t>Pavardė</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>varchar</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Leidėjas</t>
+          <t>Autorius</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>Biography</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Identifikatorius</t>
-        </is>
-      </c>
-      <c r="D36" t="b">
-        <v>1</v>
+          <t>Biografija</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>text</t>
         </is>
       </c>
     </row>
@@ -1495,20 +1530,20 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Pavadinimas</t>
-        </is>
-      </c>
-      <c r="D37" t="b">
-        <v>0</v>
+          <t>Identifikatorius</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>varchar</t>
+          <t>int</t>
         </is>
       </c>
     </row>
@@ -1520,15 +1555,15 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Address</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Adresas</t>
-        </is>
-      </c>
-      <c r="D38" t="b">
+          <t>Pavadinimas</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="inlineStr">
@@ -1545,15 +1580,15 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Phone</t>
+          <t>Address</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Telefonas</t>
-        </is>
-      </c>
-      <c r="D39" t="b">
+          <t>Adresas</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="inlineStr">
@@ -1565,25 +1600,25 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Žanras</t>
+          <t>Leidėjas</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>Phone</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Identifikatorius</t>
-        </is>
-      </c>
-      <c r="D40" t="b">
-        <v>1</v>
+          <t>Telefonas</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>varchar</t>
         </is>
       </c>
     </row>
@@ -1595,45 +1630,45 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Žanro pavadinimas</t>
-        </is>
-      </c>
-      <c r="D41" t="b">
-        <v>0</v>
+          <t>Žanro identifikatorius</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>varchar</t>
+          <t>int</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Knygos kopija</t>
+          <t>Žanras</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Identifikatorius</t>
-        </is>
-      </c>
-      <c r="D42" t="b">
-        <v>1</v>
+          <t>Žanro pavadinimas</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>varchar</t>
         </is>
       </c>
     </row>
@@ -1645,16 +1680,16 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BookID</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Knygos identifikatorius</t>
-        </is>
-      </c>
-      <c r="D43" t="b">
-        <v>0</v>
+          <t>Kopijos identifikatorius</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1670,45 +1705,45 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Status</t>
+          <t>BookID</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Būsena</t>
-        </is>
-      </c>
-      <c r="D44" t="b">
+          <t>Knygos identifikatorius</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>varchar</t>
+          <t>int</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Rezervacija</t>
+          <t>Knygos kopija</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>Status</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Identifikatorius</t>
-        </is>
-      </c>
-      <c r="D45" t="b">
-        <v>1</v>
+          <t>Būsena</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>varchar</t>
         </is>
       </c>
     </row>
@@ -1720,16 +1755,16 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ClientID</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Skaitytojo identifikatorius</t>
-        </is>
-      </c>
-      <c r="D46" t="b">
-        <v>0</v>
+          <t>Rezervacijos identifikatorius</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1745,15 +1780,15 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BookCopyID</t>
+          <t>ClientID</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Knygos kopijos identifikatorius</t>
-        </is>
-      </c>
-      <c r="D47" t="b">
+          <t>Skaitytojo identifikatorius</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
         <v>0</v>
       </c>
       <c r="E47" t="inlineStr">
@@ -1770,20 +1805,20 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ReservationDate</t>
+          <t>BookCopyID</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Rezervacijos data</t>
-        </is>
-      </c>
-      <c r="D48" t="b">
+          <t>Knygos kopijos identifikatorius</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
         <v>0</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>int</t>
         </is>
       </c>
     </row>
@@ -1795,18 +1830,43 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
+          <t>ReservationDate</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Rezervacijos data</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Rezervacija</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
           <t>ExpirationDate</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>Pabaigos data</t>
         </is>
       </c>
-      <c r="D49" t="b">
-        <v>0</v>
-      </c>
-      <c r="E49" t="inlineStr">
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="inlineStr">
         <is>
           <t>date</t>
         </is>
